--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1926655.567340693</v>
+        <v>1884831.785671686</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7632125.250225481</v>
+        <v>7632125.250225482</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>129.9127281660003</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>191.612732137126</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>45.5495227460362</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>66.53225436547994</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>89.18947935324522</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.83589518354164</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.75077256489914</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>355.4424192148207</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.9316113046338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>15.60609219526603</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.224924628593226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.3560697996876</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.542118235237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>75.00175937116303</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.2566553041829</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>13.36223335550289</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>29.38391736390425</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.90986270619085</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.67332659903506</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>88.46520452433697</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>45.22232937622817</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>75.4453935927576</v>
       </c>
       <c r="I18" t="n">
-        <v>60.11425531312909</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9216174196133</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>181.0299305830113</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>294.1307808620331</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>82.9883748110631</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>119.3260324149127</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>127.4055280274464</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>149.7232056537451</v>
+        <v>82.74637772815056</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>351.8251894796509</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>57.31882727813094</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>52.28744435919803</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
-        <v>29.38391736390379</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>123.2952177189538</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>268.9755074231835</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>364.0244588734436</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>192.9250861031646</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>45.56224815806257</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>149.8134234192864</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>10.64488002485311</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6094660437714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>39.72916582548011</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2882,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>61.1280878735126</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>43.3560697996876</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>122.1513196436838</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>191.5193594599726</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>340.0579060756008</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.136888730009664</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3128,7 +3128,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>149.3187780068791</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>85.01043530101133</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.2591398496931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>40.57976898710035</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.77654312019188</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>123.6077575056598</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>106.238752975047</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.84682997184781</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.83786409935499</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.8895498199117</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>97.42536902776966</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>73.45432151661242</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>152.3002292039009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.7943575370063</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>36.48436605884923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>115.7192767763794</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>320.4699813011873</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>82.28018995116422</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>14.7908088456473</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>101.2952820371725</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>75.15041125220446</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>70.24682125933144</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>75.26338848682849</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>145.8310257386446</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571426</v>
@@ -4112,7 +4112,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>135.316651714499</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>149.8134234192864</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>43.03218749909098</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
         <v>274.7999090013961</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
         <v>223.7040404982626</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4448,13 +4448,13 @@
         <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>417.2522547781879</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>308.7395386897029</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>746.3079049238204</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9696854242497</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>168.9696854242497</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>168.9696854242497</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X6" t="n">
-        <v>168.9696854242497</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.9696854242497</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>753.253405673024</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>509.8046290289238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.0215048700907</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C9" t="n">
-        <v>446.0215048700907</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D9" t="n">
-        <v>446.0215048700907</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>446.0215048700907</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>446.0215048700907</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>446.0215048700907</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>446.0215048700907</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="10">
@@ -4956,13 +4956,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.89499644164432</v>
+        <v>1544.141863460051</v>
       </c>
       <c r="C11" t="n">
-        <v>46.89499644164432</v>
+        <v>1175.179346519639</v>
       </c>
       <c r="D11" t="n">
-        <v>46.89499644164432</v>
+        <v>816.913647912889</v>
       </c>
       <c r="E11" t="n">
-        <v>46.89499644164432</v>
+        <v>816.913647912889</v>
       </c>
       <c r="F11" t="n">
-        <v>46.89499644164432</v>
+        <v>405.9277431232815</v>
       </c>
       <c r="G11" t="n">
         <v>46.89499644164432</v>
@@ -5041,52 +5041,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.717891471475</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U11" t="n">
-        <v>1880.931469356342</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V11" t="n">
-        <v>1549.868582012772</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W11" t="n">
-        <v>1197.099926742658</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X11" t="n">
-        <v>823.6341684815778</v>
+        <v>1544.141863460051</v>
       </c>
       <c r="Y11" t="n">
-        <v>433.4948365057661</v>
+        <v>1544.141863460051</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>829.8930637200688</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>655.4400344389418</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>506.5056247776905</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>347.268169772235</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>200.73361179912</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>62.65872593181203</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>62.65872593181203</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5147,25 +5147,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1084007401369</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="C13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="D13" t="n">
         <v>46.89499644164432</v>
@@ -5202,49 +5202,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="W13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="X13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031866</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1112.775552894006</v>
+        <v>1032.046881910144</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.775552894006</v>
+        <v>1032.046881910144</v>
       </c>
       <c r="D14" t="n">
-        <v>1112.775552894006</v>
+        <v>673.7811833033938</v>
       </c>
       <c r="E14" t="n">
-        <v>1112.775552894006</v>
+        <v>287.9929307051496</v>
       </c>
       <c r="F14" t="n">
-        <v>701.7896481043988</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G14" t="n">
-        <v>283.5178805872836</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T14" t="n">
-        <v>2050.393517622824</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U14" t="n">
-        <v>1796.607095507691</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V14" t="n">
-        <v>1465.54420816412</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W14" t="n">
-        <v>1112.775552894006</v>
+        <v>1808.786053950078</v>
       </c>
       <c r="X14" t="n">
-        <v>1112.775552894006</v>
+        <v>1808.786053950078</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.775552894006</v>
+        <v>1418.646721974266</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C15" t="n">
-        <v>639.676304948774</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="D15" t="n">
-        <v>490.7418952875228</v>
+        <v>473.1983552938636</v>
       </c>
       <c r="E15" t="n">
-        <v>331.5044402820673</v>
+        <v>313.9609002884081</v>
       </c>
       <c r="F15" t="n">
-        <v>184.9698823089523</v>
+        <v>167.4263423152931</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
         <v>46.89499644164432</v>
@@ -5360,49 +5360,49 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W15" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.344671249969</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>136.7029385691098</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200977</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>350.0884872080406</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>122.190065366126</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>102.3180182963936</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="X16" t="n">
-        <v>102.3180182963936</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.3180182963936</v>
+        <v>318.3514033993495</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>863.4820044376318</v>
+        <v>1374.559296527095</v>
       </c>
       <c r="C17" t="n">
-        <v>494.51948749722</v>
+        <v>1374.559296527095</v>
       </c>
       <c r="D17" t="n">
-        <v>136.2537888904695</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
@@ -5542,25 +5542,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2299.070701500167</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2079.087942131745</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2079.087942131745</v>
       </c>
       <c r="V17" t="n">
-        <v>2013.686934738645</v>
+        <v>1748.025054788175</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.686934738645</v>
+        <v>1748.025054788175</v>
       </c>
       <c r="X17" t="n">
-        <v>1640.221176477565</v>
+        <v>1374.559296527095</v>
       </c>
       <c r="Y17" t="n">
-        <v>1250.081844501753</v>
+        <v>1374.559296527095</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>843.8100588399047</v>
+        <v>890.3368025054137</v>
       </c>
       <c r="C18" t="n">
-        <v>669.3570295587778</v>
+        <v>715.8837732242868</v>
       </c>
       <c r="D18" t="n">
-        <v>520.4226198975265</v>
+        <v>566.9493635630355</v>
       </c>
       <c r="E18" t="n">
-        <v>361.185164892071</v>
+        <v>407.71190855758</v>
       </c>
       <c r="F18" t="n">
-        <v>214.650606918956</v>
+        <v>261.177350584465</v>
       </c>
       <c r="G18" t="n">
-        <v>214.650606918956</v>
+        <v>123.102464717157</v>
       </c>
       <c r="H18" t="n">
-        <v>107.616466454906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5606,13 +5606,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5621,25 +5621,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>2145.207124136246</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1917.026659790404</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1681.874551558661</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W18" t="n">
-        <v>1427.63719483046</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X18" t="n">
-        <v>1219.785694624927</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y18" t="n">
-        <v>1012.025395859973</v>
+        <v>1058.552139525482</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.01163585398</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.01163585398</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5697,28 +5697,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>236.7148120170113</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.01163585398</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.01163585398</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>197.01163585398</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1290.327919297622</v>
+        <v>867.601075262274</v>
       </c>
       <c r="C20" t="n">
-        <v>1290.327919297622</v>
+        <v>867.601075262274</v>
       </c>
       <c r="D20" t="n">
-        <v>1290.327919297622</v>
+        <v>509.3353766555235</v>
       </c>
       <c r="E20" t="n">
-        <v>1290.327919297622</v>
+        <v>509.3353766555235</v>
       </c>
       <c r="F20" t="n">
-        <v>879.3420145080142</v>
+        <v>509.3353766555235</v>
       </c>
       <c r="G20" t="n">
-        <v>461.0702469908991</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H20" t="n">
-        <v>130.7216376649404</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q20" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991245</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622823</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>2050.393517622823</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V20" t="n">
-        <v>2050.393517622823</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W20" t="n">
-        <v>2050.393517622823</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X20" t="n">
-        <v>1676.927759361743</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="Y20" t="n">
-        <v>1676.927759361743</v>
+        <v>867.601075262274</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>746.7104454128239</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D21" t="n">
-        <v>597.7760357515726</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="E21" t="n">
-        <v>438.5385807461172</v>
+        <v>313.9609002884086</v>
       </c>
       <c r="F21" t="n">
-        <v>292.0040227730022</v>
+        <v>167.4263423152936</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5831,25 +5831,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5861,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.378811714019</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.876245087549</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.876245087549</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.876245087549</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.876245087549</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T22" t="n">
-        <v>2193.514260815807</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="U22" t="n">
-        <v>2193.514260815807</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="V22" t="n">
-        <v>2193.514260815807</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="W22" t="n">
-        <v>2193.514260815807</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="X22" t="n">
-        <v>1965.524709917789</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="Y22" t="n">
-        <v>1965.524709917789</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1174.017763155455</v>
+        <v>1568.010650042282</v>
       </c>
       <c r="C23" t="n">
-        <v>1174.017763155455</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D23" t="n">
-        <v>1174.017763155455</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>788.2295105572106</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5989,13 +5989,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6019,22 +6019,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2286.85201675077</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2286.85201675077</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2286.85201675077</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1934.083361480656</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1560.617603219576</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>1560.617603219576</v>
+        <v>1954.610490106404</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>473.1983552938636</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>313.9609002884081</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>167.4263423152931</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6077,7 +6077,7 @@
         <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W24" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y24" t="n">
-        <v>982.344671249969</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>483.2279494777709</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>483.2279494777709</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>483.2279494777709</v>
       </c>
       <c r="U25" t="n">
-        <v>2055.568676828139</v>
+        <v>483.2279494777709</v>
       </c>
       <c r="V25" t="n">
-        <v>2055.568676828139</v>
+        <v>228.543461271884</v>
       </c>
       <c r="W25" t="n">
-        <v>1783.876245087549</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.876245087549</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.876245087549</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>581.1960947453966</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2335778049849</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2335778049849</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2335778049849</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>414.5964700511833</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1672.324580414169</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1341.261693070598</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1341.261693070598</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>967.7959348095185</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y26" t="n">
-        <v>967.7959348095185</v>
+        <v>1581.144731845324</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6308,19 +6308,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2290.276285501115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2290.276285501115</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164432</v>
@@ -6387,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200977</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W28" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>228.543461271884</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="Y28" t="n">
-        <v>228.543461271884</v>
+        <v>369.0266184727846</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.832777811837</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C29" t="n">
-        <v>795.870260871425</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D29" t="n">
-        <v>795.870260871425</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E29" t="n">
-        <v>795.870260871425</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>384.8843560818174</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6463,22 +6463,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733486</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220192</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.57194985177</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="U29" t="n">
-        <v>1941.57194985177</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="V29" t="n">
-        <v>1941.57194985177</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="W29" t="n">
-        <v>1941.57194985177</v>
+        <v>1951.850696281314</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.57194985177</v>
+        <v>1578.384938020234</v>
       </c>
       <c r="Y29" t="n">
-        <v>1551.432617875958</v>
+        <v>1188.245606044422</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C30" t="n">
-        <v>746.7104454128239</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D30" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E30" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F30" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6569,25 +6569,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2222.560539990292</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W30" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y30" t="n">
-        <v>1089.378811714019</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6648,25 +6648,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U31" t="n">
-        <v>90.68900634031866</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="V31" t="n">
-        <v>90.68900634031866</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="W31" t="n">
-        <v>90.68900634031866</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X31" t="n">
-        <v>90.68900634031866</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.68900634031866</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.89499644164432</v>
+        <v>1552.713549583553</v>
       </c>
       <c r="C32" t="n">
-        <v>46.89499644164432</v>
+        <v>1552.713549583553</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>1194.447850976803</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>808.6595983785583</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6700,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6718,34 +6718,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>1941.57194985177</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U32" t="n">
-        <v>1687.785527736638</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V32" t="n">
-        <v>1356.722640393067</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W32" t="n">
-        <v>1003.953985122953</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="X32" t="n">
-        <v>630.4882268618728</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.3488948860611</v>
+        <v>1939.313389647675</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6794,7 +6794,7 @@
         <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2193.922773590419</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673871</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401369</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.1084007401369</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>521.899446869632</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C34" t="n">
-        <v>521.899446869632</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D34" t="n">
-        <v>521.899446869632</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E34" t="n">
-        <v>521.899446869632</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F34" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
         <v>46.89499644164432</v>
@@ -6861,7 +6861,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
         <v>194.9121237200977</v>
@@ -6888,22 +6888,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T34" t="n">
-        <v>521.899446869632</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U34" t="n">
-        <v>521.899446869632</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="V34" t="n">
-        <v>521.899446869632</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="W34" t="n">
-        <v>521.899446869632</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="X34" t="n">
-        <v>521.899446869632</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="Y34" t="n">
-        <v>521.899446869632</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1377.970252133248</v>
+        <v>1253.621336413443</v>
       </c>
       <c r="C35" t="n">
-        <v>1009.007735192837</v>
+        <v>884.6588194730318</v>
       </c>
       <c r="D35" t="n">
-        <v>1009.007735192837</v>
+        <v>884.6588194730318</v>
       </c>
       <c r="E35" t="n">
-        <v>623.2194825945925</v>
+        <v>498.8705668747876</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2335778049849</v>
+        <v>87.88466208518003</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O35" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P35" t="n">
         <v>2224.886645733486</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2287.399778526466</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2104.204665664442</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2104.204665664442</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2104.204665664442</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2104.204665664442</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W35" t="n">
-        <v>1751.436010394328</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="X35" t="n">
-        <v>1377.970252133248</v>
+        <v>1640.221176477565</v>
       </c>
       <c r="Y35" t="n">
-        <v>1377.970252133248</v>
+        <v>1640.221176477565</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>665.4917812623953</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>665.4917812623953</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
         <v>121.6684232076318</v>
@@ -7043,25 +7043,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673871</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401369</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.348101975183</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>217.8380540392895</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>58.86149136270271</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>58.86149136270271</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7125,22 +7125,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363101</v>
+        <v>590.7606299016081</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363101</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164415</v>
+        <v>974.5621324127808</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164415</v>
+        <v>974.5621324127808</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164415</v>
+        <v>974.5621324127808</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164415</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164415</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7189,7 +7189,7 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319819</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709021</v>
+        <v>1751.301304452714</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9753497950903</v>
+        <v>1361.161972476903</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676.0544483625931</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147593</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7256,13 +7256,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M39" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7289,16 +7289,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673871</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401369</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y39" t="n">
-        <v>844.2697853826612</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="40">
@@ -7311,25 +7311,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363101</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363101</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363101</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F40" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
         <v>46.89499644164432</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1687.785527736638</v>
+        <v>1630.903438287023</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.823010796226</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D41" t="n">
-        <v>960.5573121894754</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E41" t="n">
-        <v>574.7690595912311</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>163.7831548016235</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>163.7831548016235</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7438,25 +7438,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1941.57194985177</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>1687.785527736638</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="Y41" t="n">
-        <v>1687.785527736638</v>
+        <v>1630.903438287023</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F42" t="n">
         <v>359.7197682838247</v>
@@ -7493,13 +7493,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M42" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7514,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2145.207124136246</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1680.409154950415</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1426.171798222213</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1218.32029801668</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>1010.559999251726</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.3514033993495</v>
+        <v>531.8590671209521</v>
       </c>
       <c r="C43" t="n">
-        <v>318.3514033993495</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="D43" t="n">
-        <v>318.3514033993495</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E43" t="n">
-        <v>318.3514033993495</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F43" t="n">
-        <v>318.3514033993495</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>149.213463145859</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7602,19 +7602,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363101</v>
+        <v>531.8590671209521</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363101</v>
+        <v>531.8590671209521</v>
       </c>
       <c r="W43" t="n">
-        <v>318.3514033993495</v>
+        <v>531.8590671209521</v>
       </c>
       <c r="X43" t="n">
-        <v>318.3514033993495</v>
+        <v>531.8590671209521</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.3514033993495</v>
+        <v>531.8590671209521</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.198404760799</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C44" t="n">
-        <v>1498.235887820388</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D44" t="n">
-        <v>1498.235887820388</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>1112.447635222143</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>701.4617304325359</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>283.1899629154207</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7678,22 +7678,22 @@
         <v>2087.181164129221</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.198404760799</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.198404760799</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.198404760799</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.198404760799</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.198404760799</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.198404760799</v>
+        <v>1621.018207419239</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>850.8043343374655</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C45" t="n">
-        <v>676.3513050563386</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D45" t="n">
-        <v>527.4168953950873</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E45" t="n">
-        <v>368.1794403896317</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F45" t="n">
-        <v>221.6448824165167</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7730,22 +7730,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7760,19 +7760,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1786.846343671155</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673871</v>
+        <v>1551.694235439412</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1297.45687871121</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401369</v>
+        <v>1089.605378505677</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.1084007401369</v>
+        <v>881.8450797407235</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.36185250133218</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="C46" t="n">
-        <v>90.36185250133218</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="D46" t="n">
-        <v>90.36185250133218</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="E46" t="n">
-        <v>90.36185250133218</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="F46" t="n">
-        <v>90.36185250133218</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="G46" t="n">
-        <v>90.36185250133218</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>90.36185250133218</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
         <v>46.89499644164432</v>
@@ -7836,22 +7836,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993495</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="X46" t="n">
-        <v>90.36185250133218</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.36185250133218</v>
+        <v>379.8701515943956</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998488</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970537</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509604</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N24" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,7 +9956,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853425</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613913</v>
@@ -10442,10 +10442,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>390.8949017221344</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853425</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613913</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998484</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>58.64663062712322</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>9.851320470103616</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.43249586044822</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.4577711487111</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.2594032185248</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,10 +23436,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
-        <v>78.27223734092833</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>331.8742863705484</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>92.78846792851618</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>123.331903653132</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.237302184546</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,10 +23673,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>50.16846292270073</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>266.6160072025011</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>293.4651655479248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>136.1408323571757</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>30.51840546665183</v>
       </c>
       <c r="I18" t="n">
-        <v>6.924332742585165</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,13 +23937,13 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>37.69782020388209</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>105.4930677535797</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>119.9582689799108</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>80.69682073864411</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>17.36810459372212</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>98.4931316749379</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24180,7 +24180,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>75.89623196975035</v>
+        <v>142.8730598953449</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>2.857852141032083</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24259,7 +24259,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>160.4641044966065</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>84.40669264943683</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.2373021845464</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>29.51913785721149</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24420,13 +24420,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>17.5474909134075</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>50.0645909685004</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>58.32347179081657</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>99.50696423532131</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.910500182201297</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620182</v>
@@ -24654,7 +24654,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>75.89623196975074</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>207.9397733272417</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>79.4795837981726</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006114</v>
+        <v>33.90064381458103</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>136.419183092997</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>124.090491051268</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24888,16 +24888,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>129.9863236801442</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>191.214482203508</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>66.81813966611065</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.3962949198577</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.30244154157108</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
@@ -25128,10 +25128,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>140.6090023224841</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>95.03019395184305</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>373.5092808548436</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.85326651986926</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
@@ -25213,10 +25213,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>42.92542614420753</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>53.38246657340324</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>43.02196166435401</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>208.7815735241404</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.8442918435688</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>284.5050010444921</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>159.3462656328128</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>53.38246657340349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>52.45246356162149</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108.936681964082</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>211.3258464563197</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25678,13 +25678,13 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>49.26111937728172</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.6184697512201</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>218.009778303778</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>56.09151501264836</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288916</v>
@@ -25842,13 +25842,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>211.1389225493317</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>256.7983019733676</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>175.9851694071527</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.70215791122274</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>90.58200798788528</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>17.63313743166918</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>96.0461381298006</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620182</v>
@@ -26076,7 +26076,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>585745.7869864713</v>
+        <v>585745.786986471</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>585745.786986471</v>
+        <v>585745.7869864708</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>585745.7869864709</v>
+        <v>585745.7869864712</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>585745.786986471</v>
+        <v>585745.7869864712</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>585745.7869864709</v>
+        <v>585745.7869864712</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>585745.7869864712</v>
+        <v>585745.786986471</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>585745.7869864713</v>
+        <v>585745.786986471</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>585745.7869864709</v>
+        <v>585745.786986471</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>585745.786986471</v>
+        <v>585745.7869864709</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="F2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="I2" t="n">
         <v>383345.3446581122</v>
@@ -26340,22 +26340,22 @@
         <v>383345.3446581122</v>
       </c>
       <c r="K2" t="n">
+        <v>383345.3446581121</v>
+      </c>
+      <c r="L2" t="n">
         <v>383345.3446581123</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>383345.3446581122</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383345.344658112</v>
       </c>
       <c r="N2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="O2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="P2" t="n">
         <v>383345.3446581123</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383345.3446581122</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007599</v>
+        <v>86018.53382007597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145241.6298659404</v>
+        <v>145241.6298659401</v>
       </c>
       <c r="C6" t="n">
         <v>226011.0613974878</v>
       </c>
       <c r="D6" t="n">
-        <v>226011.0613974878</v>
+        <v>226011.0613974879</v>
       </c>
       <c r="E6" t="n">
-        <v>-48708.65310183794</v>
+        <v>-56015.89236023401</v>
       </c>
       <c r="F6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187185</v>
       </c>
       <c r="G6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187186</v>
       </c>
       <c r="H6" t="n">
-        <v>296903.6896771148</v>
+        <v>289596.4504187186</v>
       </c>
       <c r="I6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187185</v>
       </c>
       <c r="J6" t="n">
-        <v>233843.7470780086</v>
+        <v>226536.5078196123</v>
       </c>
       <c r="K6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187185</v>
       </c>
       <c r="L6" t="n">
-        <v>296903.6896771148</v>
+        <v>289596.4504187186</v>
       </c>
       <c r="M6" t="n">
-        <v>210885.1558570387</v>
+        <v>203577.9165986425</v>
       </c>
       <c r="N6" t="n">
-        <v>296903.6896771148</v>
+        <v>289596.4504187185</v>
       </c>
       <c r="O6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187185</v>
       </c>
       <c r="P6" t="n">
-        <v>296903.6896771149</v>
+        <v>289596.4504187187</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
         <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="I4" t="n">
         <v>586.187455520554</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
         <v>586.187455520554</v>
       </c>
       <c r="L4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="M4" t="n">
         <v>586.187455520554</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>360.4966346623572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>17.53233739863848</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>14.16025306635143</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>369.7532147690989</v>
-      </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.6568797896507</v>
       </c>
     </row>
     <row r="6">
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>91.112826089921</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>143.6111077961801</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.8979464799389</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>31.86655812278559</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>62.31843982848474</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27997,10 +27997,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28028,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35503,7 +35503,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651352</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209684</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
@@ -36211,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702083</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36220,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N24" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36691,7 +36691,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>402.802715370987</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674905</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
@@ -37624,7 +37624,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651352</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37861,7 +37861,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.0609347978879</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38098,7 +38098,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255822</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
